--- a/work_log.xlsx
+++ b/work_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6908c547a813f10/Documents/04 Ausbildung/Studium/Universität Wien/MSc Wirtschaftsinformatik/Kurse/Kurse Masterstudium/Digitale Ökonomie/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_AD4DB114E441178AC67DF40806D2F2C8683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E09A1894-AB15-4D02-B2A2-DCF4883A9908}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="11_AD4DB114E441178AC67DF40806D2F2C8683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78517205-3990-4C90-86C3-AB3131FD6D9D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Task</t>
   </si>
@@ -70,6 +70,99 @@
   </si>
   <si>
     <t>Set up project in IntelliJ, draft architecture and structure, decide on naming convention etc.</t>
+  </si>
+  <si>
+    <t>Vincent König</t>
+  </si>
+  <si>
+    <t>Initial setup of frontend</t>
+  </si>
+  <si>
+    <t>Setup of backend structure</t>
+  </si>
+  <si>
+    <t>Setup of frontend structure</t>
+  </si>
+  <si>
+    <t>Setup of docker</t>
+  </si>
+  <si>
+    <t>Backend development</t>
+  </si>
+  <si>
+    <t>Initialize vue.js for frontend implementation</t>
+  </si>
+  <si>
+    <t>Set up first frontend views</t>
+  </si>
+  <si>
+    <t>Frontend development</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Experiment with validation measures (validation in springboot, validation against json schema)</t>
+  </si>
+  <si>
+    <t>Set up first backend services (user, inserat, kauf etc.)</t>
+  </si>
+  <si>
+    <t>Backend &amp; frontend development</t>
+  </si>
+  <si>
+    <t>Additional requirements</t>
+  </si>
+  <si>
+    <t>Finalize backend structure for matching service</t>
+  </si>
+  <si>
+    <t>Implement SSL authentification with NginX, initialize GraphQL interface</t>
+  </si>
+  <si>
+    <t>Create json files for batch input requirement in postman collection, continue readme file, crate diagram with archimate</t>
+  </si>
+  <si>
+    <t>Set up docker compose file for frontend, mongodb, backend, and NGINX</t>
+  </si>
+  <si>
+    <t>Implement endpoints and methods for B2B use cases</t>
+  </si>
+  <si>
+    <t>Further develop backend structure &amp; services</t>
+  </si>
+  <si>
+    <t>Further develop frontend views, connect frontend to backend (axios)</t>
+  </si>
+  <si>
+    <t>Finalize backend structure for login/user registration service, further develop frontend views</t>
+  </si>
+  <si>
+    <t>Finalize frontend and implement Admin use case</t>
+  </si>
+  <si>
+    <t>Finalize readme file and documentation</t>
+  </si>
+  <si>
+    <t>Initialize readme file, initialize postman collection</t>
+  </si>
+  <si>
+    <t>SSL authentification &amp; GraphQL</t>
+  </si>
+  <si>
+    <t>Batch input &amp; GraphQL</t>
+  </si>
+  <si>
+    <t>Set up batch input functionality in backend, finalize GraphQL interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>Test implementation and decide presentation approach</t>
+  </si>
+  <si>
+    <t>Implement user authentication in backend</t>
   </si>
 </sst>
 </file>
@@ -146,6 +239,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,11 +508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,12 +600,326 @@
         <v>44925</v>
       </c>
       <c r="C5" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44925</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44926</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44926</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44926</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44928</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44929</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44932</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44932</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44934</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44937</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44938</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44939</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44940</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44941</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44941</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44941</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44942</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44942</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44942</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/work_log.xlsx
+++ b/work_log.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6908c547a813f10/Documents/04 Ausbildung/Studium/Universität Wien/MSc Wirtschaftsinformatik/Kurse/Kurse Masterstudium/Digitale Ökonomie/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="11_AD4DB114E441178AC67DF40806D2F2C8683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78517205-3990-4C90-86C3-AB3131FD6D9D}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="11_AD4DB114E441178AC67DF40806D2F2C8683EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE733E26-CDA1-48D7-BED0-ED32E91D913A}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$E$24</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -512,7 +515,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -888,6 +891,9 @@
       <c r="B22" s="3">
         <v>44942</v>
       </c>
+      <c r="C22" s="4">
+        <v>3</v>
+      </c>
       <c r="D22" s="2" t="s">
         <v>42</v>
       </c>
@@ -902,6 +908,9 @@
       <c r="B23" s="3">
         <v>44942</v>
       </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
       <c r="D23" s="2" t="s">
         <v>38</v>
       </c>
@@ -916,6 +925,9 @@
       <c r="B24" s="3">
         <v>44942</v>
       </c>
+      <c r="C24" s="4">
+        <v>3</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>44</v>
       </c>
@@ -924,6 +936,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E24" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
